--- a/NTQ.xlsx
+++ b/NTQ.xlsx
@@ -481,7 +481,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -539,8 +539,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" display="mailto:kiencgp@gmail.com"/>
+    <hyperlink ref="B5" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>